--- a/dados_producao.xlsx
+++ b/dados_producao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>diametro</t>
   </si>
@@ -144,622 +144,7 @@
     <t>tes08-10-2025-9</t>
   </si>
   <si>
-    <t>tes08-10-2025-10</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-11</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-12</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-13</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-14</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-15</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-16</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-17</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-18</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-19</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-20</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-21</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-22</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-23</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-24</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-25</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-26</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-27</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-28</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-29</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-30</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-31</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-32</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-33</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-34</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-35</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-36</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-37</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-38</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-39</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-40</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-41</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-42</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-43</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-44</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-45</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-46</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-47</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-48</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-49</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-50</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-51</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-52</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-53</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-54</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-55</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-56</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-57</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-58</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-59</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-60</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-61</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-62</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-63</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-64</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-65</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-66</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-67</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-68</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-69</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-70</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-71</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-72</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-73</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-74</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-75</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-76</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-77</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-78</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-79</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-80</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-81</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-82</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-83</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-84</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-85</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-86</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-87</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-88</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-89</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-90</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-91</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-92</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-93</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-94</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-95</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-96</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-97</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-98</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-99</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-100</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-101</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-102</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-103</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-104</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-105</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-106</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-107</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-108</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-109</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-110</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-111</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-112</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-113</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-114</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-115</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-116</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-117</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-118</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-119</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-120</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-121</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-122</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-123</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-124</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-125</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-126</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-127</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-128</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-129</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-130</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-131</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-132</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-133</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-134</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-135</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-136</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-137</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-138</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-139</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-140</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-141</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-142</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-143</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-144</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-145</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-146</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-147</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-148</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-149</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-150</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-151</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-152</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-153</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-154</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-155</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-156</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-157</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-158</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-159</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-160</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-161</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-162</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-163</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-164</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-165</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-166</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-167</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-168</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-169</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-170</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-171</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-172</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-173</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-174</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-175</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-176</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-177</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-178</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-179</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-180</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-181</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-182</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-183</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-184</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-185</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-186</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-187</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-188</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-189</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-190</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-191</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-192</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-193</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-194</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-195</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-196</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-197</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-198</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-199</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-200</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-201</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-202</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-203</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-204</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-205</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-206</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-207</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-208</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-209</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-210</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-211</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-212</t>
-  </si>
-  <si>
-    <t>tes08-10-2025-213</t>
-  </si>
-  <si>
     <t>rectangle</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -927,21 +312,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1239,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:Z214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,7 +785,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6">
         <v>300</v>
@@ -1518,7 +889,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6">
         <v>400</v>
@@ -1559,7 +930,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6">
         <v>100</v>
@@ -1600,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C5" s="19">
         <v>150</v>
@@ -1640,7 +1011,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C6" s="19">
         <v>90</v>
@@ -1680,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C7" s="19">
         <v>64</v>
@@ -1720,7 +1091,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C8" s="19">
         <v>100</v>
@@ -1760,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6">
         <v>300</v>
@@ -1800,7 +1171,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6">
         <v>400</v>
@@ -1836,18 +1207,10 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="6">
-        <v>100</v>
-      </c>
-      <c r="D11" s="6">
-        <v>50</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1868,26 +1231,14 @@
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z11" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="19">
-        <v>150</v>
-      </c>
-      <c r="D12" s="19">
-        <v>150</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1908,26 +1259,14 @@
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="19">
-        <v>90</v>
-      </c>
-      <c r="D13" s="19">
-        <v>130</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1948,26 +1287,14 @@
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="19">
-        <v>64</v>
-      </c>
-      <c r="D14" s="19">
-        <v>98</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1988,26 +1315,14 @@
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="19">
-        <v>100</v>
-      </c>
-      <c r="D15" s="19">
-        <v>352</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2028,26 +1343,14 @@
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="6">
-        <v>300</v>
-      </c>
-      <c r="D16" s="6">
-        <v>300</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2068,26 +1371,14 @@
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="6">
-        <v>400</v>
-      </c>
-      <c r="D17" s="6">
-        <v>400</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2108,26 +1399,14 @@
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="6">
-        <v>100</v>
-      </c>
-      <c r="D18" s="6">
-        <v>50</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2148,26 +1427,14 @@
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="19">
-        <v>150</v>
-      </c>
-      <c r="D19" s="19">
-        <v>150</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2188,26 +1455,14 @@
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z19" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="19">
-        <v>90</v>
-      </c>
-      <c r="D20" s="19">
-        <v>130</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2228,26 +1483,14 @@
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="19">
-        <v>64</v>
-      </c>
-      <c r="D21" s="19">
-        <v>98</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2268,26 +1511,14 @@
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z21" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="19">
-        <v>100</v>
-      </c>
-      <c r="D22" s="19">
-        <v>352</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2308,26 +1539,14 @@
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="6">
-        <v>300</v>
-      </c>
-      <c r="D23" s="6">
-        <v>300</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2348,26 +1567,14 @@
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="6">
-        <v>400</v>
-      </c>
-      <c r="D24" s="6">
-        <v>400</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2388,26 +1595,14 @@
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z24" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="6">
-        <v>100</v>
-      </c>
-      <c r="D25" s="6">
-        <v>50</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2428,26 +1623,14 @@
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z25" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="19">
-        <v>150</v>
-      </c>
-      <c r="D26" s="19">
-        <v>150</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2468,26 +1651,14 @@
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="19">
-        <v>90</v>
-      </c>
-      <c r="D27" s="19">
-        <v>130</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2508,26 +1679,14 @@
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="19">
-        <v>64</v>
-      </c>
-      <c r="D28" s="19">
-        <v>98</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2548,26 +1707,14 @@
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z28" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="19">
-        <v>100</v>
-      </c>
-      <c r="D29" s="19">
-        <v>352</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2588,26 +1735,14 @@
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z29" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="6">
-        <v>300</v>
-      </c>
-      <c r="D30" s="6">
-        <v>300</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2628,26 +1763,14 @@
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z30" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="6">
-        <v>400</v>
-      </c>
-      <c r="D31" s="6">
-        <v>400</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2668,26 +1791,14 @@
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z31" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="6">
-        <v>100</v>
-      </c>
-      <c r="D32" s="6">
-        <v>50</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2708,26 +1819,14 @@
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z32" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="19">
-        <v>150</v>
-      </c>
-      <c r="D33" s="19">
-        <v>150</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2748,26 +1847,14 @@
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z33" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="19">
-        <v>90</v>
-      </c>
-      <c r="D34" s="19">
-        <v>130</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2788,26 +1875,14 @@
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z34" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="19">
-        <v>64</v>
-      </c>
-      <c r="D35" s="19">
-        <v>98</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2828,26 +1903,14 @@
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="19">
-        <v>100</v>
-      </c>
-      <c r="D36" s="19">
-        <v>352</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2868,26 +1931,14 @@
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z36" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="6">
-        <v>300</v>
-      </c>
-      <c r="D37" s="6">
-        <v>300</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2908,26 +1959,14 @@
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z37" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="6">
-        <v>400</v>
-      </c>
-      <c r="D38" s="6">
-        <v>400</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2948,26 +1987,14 @@
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z38" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="6">
-        <v>100</v>
-      </c>
-      <c r="D39" s="6">
-        <v>50</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2988,26 +2015,14 @@
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z39" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="19">
-        <v>150</v>
-      </c>
-      <c r="D40" s="19">
-        <v>150</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3028,26 +2043,14 @@
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z40" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" s="19">
-        <v>90</v>
-      </c>
-      <c r="D41" s="19">
-        <v>130</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3068,26 +2071,14 @@
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z41" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="19">
-        <v>64</v>
-      </c>
-      <c r="D42" s="19">
-        <v>98</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3108,26 +2099,14 @@
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z42" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C43" s="19">
-        <v>100</v>
-      </c>
-      <c r="D43" s="19">
-        <v>352</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3148,26 +2127,14 @@
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="6">
-        <v>300</v>
-      </c>
-      <c r="D44" s="6">
-        <v>300</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3188,26 +2155,14 @@
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z44" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="6">
-        <v>400</v>
-      </c>
-      <c r="D45" s="6">
-        <v>400</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3228,26 +2183,14 @@
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z45" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="6">
-        <v>100</v>
-      </c>
-      <c r="D46" s="6">
-        <v>50</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3268,26 +2211,14 @@
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
       <c r="X46" s="6"/>
-      <c r="Y46" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z46" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="19">
-        <v>150</v>
-      </c>
-      <c r="D47" s="19">
-        <v>150</v>
-      </c>
+      <c r="A47" s="8"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3308,26 +2239,14 @@
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z47" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="19">
-        <v>90</v>
-      </c>
-      <c r="D48" s="19">
-        <v>130</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3348,26 +2267,14 @@
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z48" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="19">
-        <v>64</v>
-      </c>
-      <c r="D49" s="19">
-        <v>98</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -3388,26 +2295,14 @@
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z49" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="19">
-        <v>100</v>
-      </c>
-      <c r="D50" s="19">
-        <v>352</v>
-      </c>
+      <c r="A50" s="8"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3428,26 +2323,14 @@
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z50" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="6">
-        <v>300</v>
-      </c>
-      <c r="D51" s="6">
-        <v>300</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3468,26 +2351,14 @@
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z51" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="6">
-        <v>400</v>
-      </c>
-      <c r="D52" s="6">
-        <v>400</v>
-      </c>
+      <c r="A52" s="8"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -3508,26 +2379,14 @@
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z52" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="6">
-        <v>100</v>
-      </c>
-      <c r="D53" s="6">
-        <v>50</v>
-      </c>
+      <c r="A53" s="8"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3548,26 +2407,14 @@
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z53" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" s="19">
-        <v>150</v>
-      </c>
-      <c r="D54" s="19">
-        <v>150</v>
-      </c>
+      <c r="A54" s="8"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3588,26 +2435,14 @@
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="19">
-        <v>90</v>
-      </c>
-      <c r="D55" s="19">
-        <v>130</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -3628,26 +2463,14 @@
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z55" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="19">
-        <v>64</v>
-      </c>
-      <c r="D56" s="19">
-        <v>98</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -3668,26 +2491,14 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
       <c r="X56" s="6"/>
-      <c r="Y56" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z56" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" s="19">
-        <v>100</v>
-      </c>
-      <c r="D57" s="19">
-        <v>352</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -3708,26 +2519,14 @@
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
       <c r="X57" s="6"/>
-      <c r="Y57" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z57" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="6">
-        <v>300</v>
-      </c>
-      <c r="D58" s="6">
-        <v>300</v>
-      </c>
+      <c r="A58" s="8"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -3748,26 +2547,14 @@
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
       <c r="X58" s="6"/>
-      <c r="Y58" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z58" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="6">
-        <v>400</v>
-      </c>
-      <c r="D59" s="6">
-        <v>400</v>
-      </c>
+      <c r="A59" s="8"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -3788,26 +2575,14 @@
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
       <c r="X59" s="6"/>
-      <c r="Y59" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z59" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="6">
-        <v>100</v>
-      </c>
-      <c r="D60" s="6">
-        <v>50</v>
-      </c>
+      <c r="A60" s="8"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3828,26 +2603,14 @@
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z60" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="19">
-        <v>150</v>
-      </c>
-      <c r="D61" s="19">
-        <v>150</v>
-      </c>
+      <c r="A61" s="8"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3868,26 +2631,14 @@
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z61" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="19">
-        <v>90</v>
-      </c>
-      <c r="D62" s="19">
-        <v>130</v>
-      </c>
+      <c r="A62" s="8"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -3908,26 +2659,14 @@
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
       <c r="X62" s="6"/>
-      <c r="Y62" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z62" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="19">
-        <v>64</v>
-      </c>
-      <c r="D63" s="19">
-        <v>98</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -3948,26 +2687,14 @@
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
       <c r="X63" s="6"/>
-      <c r="Y63" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z63" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" s="19">
-        <v>100</v>
-      </c>
-      <c r="D64" s="19">
-        <v>352</v>
-      </c>
+      <c r="A64" s="8"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -3988,26 +2715,14 @@
       <c r="V64" s="15"/>
       <c r="W64" s="15"/>
       <c r="X64" s="6"/>
-      <c r="Y64" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z64" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="6">
-        <v>300</v>
-      </c>
-      <c r="D65" s="6">
-        <v>300</v>
-      </c>
+      <c r="A65" s="8"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -4028,26 +2743,14 @@
       <c r="V65" s="15"/>
       <c r="W65" s="15"/>
       <c r="X65" s="6"/>
-      <c r="Y65" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z65" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="6">
-        <v>400</v>
-      </c>
-      <c r="D66" s="6">
-        <v>400</v>
-      </c>
+      <c r="A66" s="8"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4068,26 +2771,14 @@
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
       <c r="X66" s="6"/>
-      <c r="Y66" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z66" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="6">
-        <v>100</v>
-      </c>
-      <c r="D67" s="6">
-        <v>50</v>
-      </c>
+      <c r="A67" s="8"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -4108,26 +2799,14 @@
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
       <c r="X67" s="6"/>
-      <c r="Y67" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z67" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="19">
-        <v>150</v>
-      </c>
-      <c r="D68" s="19">
-        <v>150</v>
-      </c>
+      <c r="A68" s="8"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4148,26 +2827,14 @@
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
       <c r="X68" s="6"/>
-      <c r="Y68" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z68" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="19">
-        <v>90</v>
-      </c>
-      <c r="D69" s="19">
-        <v>130</v>
-      </c>
+      <c r="A69" s="8"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4188,26 +2855,14 @@
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
       <c r="X69" s="6"/>
-      <c r="Y69" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z69" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="19">
-        <v>64</v>
-      </c>
-      <c r="D70" s="19">
-        <v>98</v>
-      </c>
+      <c r="A70" s="8"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4228,26 +2883,14 @@
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
       <c r="X70" s="6"/>
-      <c r="Y70" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z70" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="19">
-        <v>100</v>
-      </c>
-      <c r="D71" s="19">
-        <v>352</v>
-      </c>
+      <c r="A71" s="8"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4268,26 +2911,14 @@
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
       <c r="X71" s="6"/>
-      <c r="Y71" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z71" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="6">
-        <v>300</v>
-      </c>
-      <c r="D72" s="6">
-        <v>300</v>
-      </c>
+      <c r="A72" s="8"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4308,26 +2939,14 @@
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
       <c r="X72" s="6"/>
-      <c r="Y72" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z72" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C73" s="6">
-        <v>400</v>
-      </c>
-      <c r="D73" s="6">
-        <v>400</v>
-      </c>
+      <c r="A73" s="8"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4348,26 +2967,14 @@
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
       <c r="X73" s="6"/>
-      <c r="Y73" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z73" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C74" s="6">
-        <v>100</v>
-      </c>
-      <c r="D74" s="6">
-        <v>50</v>
-      </c>
+      <c r="A74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4388,26 +2995,14 @@
       <c r="V74" s="15"/>
       <c r="W74" s="15"/>
       <c r="X74" s="6"/>
-      <c r="Y74" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z74" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" s="19">
-        <v>150</v>
-      </c>
-      <c r="D75" s="19">
-        <v>150</v>
-      </c>
+      <c r="A75" s="8"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -4428,26 +3023,14 @@
       <c r="V75" s="15"/>
       <c r="W75" s="15"/>
       <c r="X75" s="6"/>
-      <c r="Y75" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z75" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="19">
-        <v>90</v>
-      </c>
-      <c r="D76" s="19">
-        <v>130</v>
-      </c>
+      <c r="A76" s="8"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -4468,26 +3051,14 @@
       <c r="V76" s="15"/>
       <c r="W76" s="15"/>
       <c r="X76" s="6"/>
-      <c r="Y76" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z76" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="19">
-        <v>64</v>
-      </c>
-      <c r="D77" s="19">
-        <v>98</v>
-      </c>
+      <c r="A77" s="8"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -4508,26 +3079,14 @@
       <c r="V77" s="15"/>
       <c r="W77" s="15"/>
       <c r="X77" s="6"/>
-      <c r="Y77" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z77" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="19">
-        <v>100</v>
-      </c>
-      <c r="D78" s="19">
-        <v>352</v>
-      </c>
+      <c r="A78" s="8"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -4548,26 +3107,14 @@
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
       <c r="X78" s="6"/>
-      <c r="Y78" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z78" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C79" s="6">
-        <v>300</v>
-      </c>
-      <c r="D79" s="6">
-        <v>300</v>
-      </c>
+      <c r="A79" s="8"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -4588,26 +3135,14 @@
       <c r="V79" s="15"/>
       <c r="W79" s="15"/>
       <c r="X79" s="6"/>
-      <c r="Y79" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z79" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80" s="6">
-        <v>400</v>
-      </c>
-      <c r="D80" s="6">
-        <v>400</v>
-      </c>
+      <c r="A80" s="8"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -4628,26 +3163,14 @@
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
       <c r="X80" s="6"/>
-      <c r="Y80" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z80" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" s="6">
-        <v>100</v>
-      </c>
-      <c r="D81" s="6">
-        <v>50</v>
-      </c>
+      <c r="A81" s="8"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -4668,26 +3191,14 @@
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
       <c r="X81" s="6"/>
-      <c r="Y81" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="19">
-        <v>150</v>
-      </c>
-      <c r="D82" s="19">
-        <v>150</v>
-      </c>
+      <c r="A82" s="8"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -4708,26 +3219,14 @@
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
       <c r="X82" s="6"/>
-      <c r="Y82" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z82" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C83" s="19">
-        <v>90</v>
-      </c>
-      <c r="D83" s="19">
-        <v>130</v>
-      </c>
+      <c r="A83" s="8"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -4748,26 +3247,14 @@
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
       <c r="X83" s="6"/>
-      <c r="Y83" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z83" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C84" s="19">
-        <v>64</v>
-      </c>
-      <c r="D84" s="19">
-        <v>98</v>
-      </c>
+      <c r="A84" s="8"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4788,26 +3275,14 @@
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
       <c r="X84" s="6"/>
-      <c r="Y84" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z84" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" s="19">
-        <v>100</v>
-      </c>
-      <c r="D85" s="19">
-        <v>352</v>
-      </c>
+      <c r="A85" s="8"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -4828,26 +3303,14 @@
       <c r="V85" s="15"/>
       <c r="W85" s="15"/>
       <c r="X85" s="6"/>
-      <c r="Y85" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z85" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="6">
-        <v>300</v>
-      </c>
-      <c r="D86" s="6">
-        <v>300</v>
-      </c>
+      <c r="A86" s="8"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -4868,26 +3331,14 @@
       <c r="V86" s="15"/>
       <c r="W86" s="15"/>
       <c r="X86" s="6"/>
-      <c r="Y86" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z86" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="6">
-        <v>400</v>
-      </c>
-      <c r="D87" s="6">
-        <v>400</v>
-      </c>
+      <c r="A87" s="8"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4908,26 +3359,14 @@
       <c r="V87" s="15"/>
       <c r="W87" s="15"/>
       <c r="X87" s="6"/>
-      <c r="Y87" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z87" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="6">
-        <v>100</v>
-      </c>
-      <c r="D88" s="6">
-        <v>50</v>
-      </c>
+      <c r="A88" s="8"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4948,26 +3387,14 @@
       <c r="V88" s="15"/>
       <c r="W88" s="15"/>
       <c r="X88" s="6"/>
-      <c r="Y88" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z88" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C89" s="19">
-        <v>150</v>
-      </c>
-      <c r="D89" s="19">
-        <v>150</v>
-      </c>
+      <c r="A89" s="8"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -4988,26 +3415,14 @@
       <c r="V89" s="15"/>
       <c r="W89" s="15"/>
       <c r="X89" s="6"/>
-      <c r="Y89" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z89" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="19">
-        <v>90</v>
-      </c>
-      <c r="D90" s="19">
-        <v>130</v>
-      </c>
+      <c r="A90" s="8"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -5028,26 +3443,14 @@
       <c r="V90" s="15"/>
       <c r="W90" s="15"/>
       <c r="X90" s="6"/>
-      <c r="Y90" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z90" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C91" s="19">
-        <v>64</v>
-      </c>
-      <c r="D91" s="19">
-        <v>98</v>
-      </c>
+      <c r="A91" s="8"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -5068,26 +3471,14 @@
       <c r="V91" s="15"/>
       <c r="W91" s="15"/>
       <c r="X91" s="6"/>
-      <c r="Y91" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z91" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="19">
-        <v>100</v>
-      </c>
-      <c r="D92" s="19">
-        <v>352</v>
-      </c>
+      <c r="A92" s="8"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5108,26 +3499,14 @@
       <c r="V92" s="15"/>
       <c r="W92" s="15"/>
       <c r="X92" s="6"/>
-      <c r="Y92" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z92" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C93" s="6">
-        <v>300</v>
-      </c>
-      <c r="D93" s="6">
-        <v>300</v>
-      </c>
+      <c r="A93" s="8"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -5148,26 +3527,14 @@
       <c r="V93" s="15"/>
       <c r="W93" s="15"/>
       <c r="X93" s="6"/>
-      <c r="Y93" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z93" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="6">
-        <v>400</v>
-      </c>
-      <c r="D94" s="6">
-        <v>400</v>
-      </c>
+      <c r="A94" s="8"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -5188,26 +3555,14 @@
       <c r="V94" s="15"/>
       <c r="W94" s="15"/>
       <c r="X94" s="6"/>
-      <c r="Y94" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z94" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C95" s="6">
-        <v>100</v>
-      </c>
-      <c r="D95" s="6">
-        <v>50</v>
-      </c>
+      <c r="A95" s="8"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -5228,26 +3583,14 @@
       <c r="V95" s="15"/>
       <c r="W95" s="15"/>
       <c r="X95" s="6"/>
-      <c r="Y95" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z95" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="19">
-        <v>150</v>
-      </c>
-      <c r="D96" s="19">
-        <v>150</v>
-      </c>
+      <c r="A96" s="8"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5268,26 +3611,14 @@
       <c r="V96" s="15"/>
       <c r="W96" s="15"/>
       <c r="X96" s="6"/>
-      <c r="Y96" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z96" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="19">
-        <v>90</v>
-      </c>
-      <c r="D97" s="19">
-        <v>130</v>
-      </c>
+      <c r="A97" s="8"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -5308,26 +3639,14 @@
       <c r="V97" s="15"/>
       <c r="W97" s="15"/>
       <c r="X97" s="6"/>
-      <c r="Y97" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z97" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="19">
-        <v>64</v>
-      </c>
-      <c r="D98" s="19">
-        <v>98</v>
-      </c>
+      <c r="A98" s="8"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -5348,26 +3667,14 @@
       <c r="V98" s="15"/>
       <c r="W98" s="15"/>
       <c r="X98" s="6"/>
-      <c r="Y98" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z98" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C99" s="19">
-        <v>100</v>
-      </c>
-      <c r="D99" s="19">
-        <v>352</v>
-      </c>
+      <c r="A99" s="8"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -5388,26 +3695,14 @@
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
       <c r="X99" s="6"/>
-      <c r="Y99" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z99" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" s="6">
-        <v>300</v>
-      </c>
-      <c r="D100" s="6">
-        <v>300</v>
-      </c>
+      <c r="A100" s="8"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -5428,26 +3723,14 @@
       <c r="V100" s="15"/>
       <c r="W100" s="15"/>
       <c r="X100" s="6"/>
-      <c r="Y100" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z100" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C101" s="6">
-        <v>400</v>
-      </c>
-      <c r="D101" s="6">
-        <v>400</v>
-      </c>
+      <c r="A101" s="8"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -5468,26 +3751,14 @@
       <c r="V101" s="15"/>
       <c r="W101" s="15"/>
       <c r="X101" s="6"/>
-      <c r="Y101" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z101" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="6">
-        <v>100</v>
-      </c>
-      <c r="D102" s="6">
-        <v>50</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -5508,26 +3779,14 @@
       <c r="V102" s="15"/>
       <c r="W102" s="15"/>
       <c r="X102" s="6"/>
-      <c r="Y102" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z102" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="19">
-        <v>150</v>
-      </c>
-      <c r="D103" s="19">
-        <v>150</v>
-      </c>
+      <c r="A103" s="8"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5548,26 +3807,14 @@
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
       <c r="X103" s="6"/>
-      <c r="Y103" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z103" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" s="19">
-        <v>90</v>
-      </c>
-      <c r="D104" s="19">
-        <v>130</v>
-      </c>
+      <c r="A104" s="8"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5588,26 +3835,14 @@
       <c r="V104" s="15"/>
       <c r="W104" s="15"/>
       <c r="X104" s="6"/>
-      <c r="Y104" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z104" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="17"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="19">
-        <v>64</v>
-      </c>
-      <c r="D105" s="19">
-        <v>98</v>
-      </c>
+      <c r="A105" s="8"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -5628,26 +3863,14 @@
       <c r="V105" s="15"/>
       <c r="W105" s="15"/>
       <c r="X105" s="6"/>
-      <c r="Y105" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z105" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106" s="19">
-        <v>100</v>
-      </c>
-      <c r="D106" s="19">
-        <v>352</v>
-      </c>
+      <c r="A106" s="8"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -5668,26 +3891,14 @@
       <c r="V106" s="15"/>
       <c r="W106" s="15"/>
       <c r="X106" s="6"/>
-      <c r="Y106" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z106" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="6">
-        <v>300</v>
-      </c>
-      <c r="D107" s="6">
-        <v>300</v>
-      </c>
+      <c r="A107" s="8"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5708,26 +3919,14 @@
       <c r="V107" s="15"/>
       <c r="W107" s="15"/>
       <c r="X107" s="6"/>
-      <c r="Y107" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z107" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="6">
-        <v>400</v>
-      </c>
-      <c r="D108" s="6">
-        <v>400</v>
-      </c>
+      <c r="A108" s="8"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -5748,26 +3947,14 @@
       <c r="V108" s="15"/>
       <c r="W108" s="15"/>
       <c r="X108" s="6"/>
-      <c r="Y108" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z108" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C109" s="6">
-        <v>100</v>
-      </c>
-      <c r="D109" s="6">
-        <v>50</v>
-      </c>
+      <c r="A109" s="8"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -5788,26 +3975,14 @@
       <c r="V109" s="15"/>
       <c r="W109" s="15"/>
       <c r="X109" s="6"/>
-      <c r="Y109" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z109" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" s="19">
-        <v>150</v>
-      </c>
-      <c r="D110" s="19">
-        <v>150</v>
-      </c>
+      <c r="A110" s="8"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -5828,26 +4003,14 @@
       <c r="V110" s="15"/>
       <c r="W110" s="15"/>
       <c r="X110" s="6"/>
-      <c r="Y110" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z110" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="19">
-        <v>90</v>
-      </c>
-      <c r="D111" s="19">
-        <v>130</v>
-      </c>
+      <c r="A111" s="8"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -5868,26 +4031,14 @@
       <c r="V111" s="15"/>
       <c r="W111" s="15"/>
       <c r="X111" s="6"/>
-      <c r="Y111" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z111" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="19">
-        <v>64</v>
-      </c>
-      <c r="D112" s="19">
-        <v>98</v>
-      </c>
+      <c r="A112" s="8"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -5908,26 +4059,14 @@
       <c r="V112" s="15"/>
       <c r="W112" s="15"/>
       <c r="X112" s="6"/>
-      <c r="Y112" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z112" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="19">
-        <v>100</v>
-      </c>
-      <c r="D113" s="19">
-        <v>352</v>
-      </c>
+      <c r="A113" s="8"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -5948,26 +4087,14 @@
       <c r="V113" s="15"/>
       <c r="W113" s="15"/>
       <c r="X113" s="6"/>
-      <c r="Y113" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z113" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="6">
-        <v>300</v>
-      </c>
-      <c r="D114" s="6">
-        <v>300</v>
-      </c>
+      <c r="A114" s="8"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -5988,26 +4115,14 @@
       <c r="V114" s="15"/>
       <c r="W114" s="15"/>
       <c r="X114" s="6"/>
-      <c r="Y114" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z114" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="6">
-        <v>400</v>
-      </c>
-      <c r="D115" s="6">
-        <v>400</v>
-      </c>
+      <c r="A115" s="8"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -6028,26 +4143,14 @@
       <c r="V115" s="15"/>
       <c r="W115" s="15"/>
       <c r="X115" s="6"/>
-      <c r="Y115" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z115" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" s="6">
-        <v>100</v>
-      </c>
-      <c r="D116" s="6">
-        <v>50</v>
-      </c>
+      <c r="A116" s="8"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -6068,26 +4171,14 @@
       <c r="V116" s="15"/>
       <c r="W116" s="15"/>
       <c r="X116" s="6"/>
-      <c r="Y116" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z116" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" s="19">
-        <v>150</v>
-      </c>
-      <c r="D117" s="19">
-        <v>150</v>
-      </c>
+      <c r="A117" s="8"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -6108,26 +4199,14 @@
       <c r="V117" s="15"/>
       <c r="W117" s="15"/>
       <c r="X117" s="6"/>
-      <c r="Y117" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z117" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="19">
-        <v>90</v>
-      </c>
-      <c r="D118" s="19">
-        <v>130</v>
-      </c>
+      <c r="A118" s="8"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -6148,26 +4227,14 @@
       <c r="V118" s="15"/>
       <c r="W118" s="15"/>
       <c r="X118" s="6"/>
-      <c r="Y118" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z118" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="19">
-        <v>64</v>
-      </c>
-      <c r="D119" s="19">
-        <v>98</v>
-      </c>
+      <c r="A119" s="8"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -6188,26 +4255,14 @@
       <c r="V119" s="15"/>
       <c r="W119" s="15"/>
       <c r="X119" s="6"/>
-      <c r="Y119" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z119" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="17"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C120" s="19">
-        <v>100</v>
-      </c>
-      <c r="D120" s="19">
-        <v>352</v>
-      </c>
+      <c r="A120" s="8"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -6228,26 +4283,14 @@
       <c r="V120" s="15"/>
       <c r="W120" s="15"/>
       <c r="X120" s="6"/>
-      <c r="Y120" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z120" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121" s="6">
-        <v>300</v>
-      </c>
-      <c r="D121" s="6">
-        <v>300</v>
-      </c>
+      <c r="A121" s="8"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -6268,26 +4311,14 @@
       <c r="V121" s="15"/>
       <c r="W121" s="15"/>
       <c r="X121" s="6"/>
-      <c r="Y121" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z121" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C122" s="6">
-        <v>400</v>
-      </c>
-      <c r="D122" s="6">
-        <v>400</v>
-      </c>
+      <c r="A122" s="8"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -6308,26 +4339,14 @@
       <c r="V122" s="15"/>
       <c r="W122" s="15"/>
       <c r="X122" s="6"/>
-      <c r="Y122" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z122" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y122" s="17"/>
+      <c r="Z122" s="17"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C123" s="6">
-        <v>100</v>
-      </c>
-      <c r="D123" s="6">
-        <v>50</v>
-      </c>
+      <c r="A123" s="8"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -6348,26 +4367,14 @@
       <c r="V123" s="15"/>
       <c r="W123" s="15"/>
       <c r="X123" s="6"/>
-      <c r="Y123" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z123" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C124" s="19">
-        <v>150</v>
-      </c>
-      <c r="D124" s="19">
-        <v>150</v>
-      </c>
+      <c r="A124" s="8"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -6388,26 +4395,14 @@
       <c r="V124" s="15"/>
       <c r="W124" s="15"/>
       <c r="X124" s="6"/>
-      <c r="Y124" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z124" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y124" s="17"/>
+      <c r="Z124" s="17"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="19">
-        <v>90</v>
-      </c>
-      <c r="D125" s="19">
-        <v>130</v>
-      </c>
+      <c r="A125" s="8"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -6428,26 +4423,14 @@
       <c r="V125" s="15"/>
       <c r="W125" s="15"/>
       <c r="X125" s="6"/>
-      <c r="Y125" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z125" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y125" s="17"/>
+      <c r="Z125" s="17"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="19">
-        <v>64</v>
-      </c>
-      <c r="D126" s="19">
-        <v>98</v>
-      </c>
+      <c r="A126" s="8"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -6468,26 +4451,14 @@
       <c r="V126" s="15"/>
       <c r="W126" s="15"/>
       <c r="X126" s="6"/>
-      <c r="Y126" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z126" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y126" s="17"/>
+      <c r="Z126" s="17"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" s="19">
-        <v>100</v>
-      </c>
-      <c r="D127" s="19">
-        <v>352</v>
-      </c>
+      <c r="A127" s="8"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -6508,26 +4479,14 @@
       <c r="V127" s="15"/>
       <c r="W127" s="15"/>
       <c r="X127" s="6"/>
-      <c r="Y127" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z127" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y127" s="17"/>
+      <c r="Z127" s="17"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="6">
-        <v>300</v>
-      </c>
-      <c r="D128" s="6">
-        <v>300</v>
-      </c>
+      <c r="A128" s="8"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -6548,26 +4507,14 @@
       <c r="V128" s="15"/>
       <c r="W128" s="15"/>
       <c r="X128" s="6"/>
-      <c r="Y128" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z128" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y128" s="17"/>
+      <c r="Z128" s="17"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C129" s="6">
-        <v>400</v>
-      </c>
-      <c r="D129" s="6">
-        <v>400</v>
-      </c>
+      <c r="A129" s="8"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -6588,26 +4535,14 @@
       <c r="V129" s="15"/>
       <c r="W129" s="15"/>
       <c r="X129" s="6"/>
-      <c r="Y129" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z129" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y129" s="17"/>
+      <c r="Z129" s="17"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C130" s="6">
-        <v>100</v>
-      </c>
-      <c r="D130" s="6">
-        <v>50</v>
-      </c>
+      <c r="A130" s="8"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -6628,26 +4563,14 @@
       <c r="V130" s="15"/>
       <c r="W130" s="15"/>
       <c r="X130" s="6"/>
-      <c r="Y130" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z130" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y130" s="17"/>
+      <c r="Z130" s="17"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C131" s="19">
-        <v>150</v>
-      </c>
-      <c r="D131" s="19">
-        <v>150</v>
-      </c>
+      <c r="A131" s="8"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -6668,26 +4591,14 @@
       <c r="V131" s="15"/>
       <c r="W131" s="15"/>
       <c r="X131" s="6"/>
-      <c r="Y131" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z131" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y131" s="17"/>
+      <c r="Z131" s="17"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C132" s="19">
-        <v>90</v>
-      </c>
-      <c r="D132" s="19">
-        <v>130</v>
-      </c>
+      <c r="A132" s="8"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -6708,26 +4619,14 @@
       <c r="V132" s="15"/>
       <c r="W132" s="15"/>
       <c r="X132" s="6"/>
-      <c r="Y132" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z132" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y132" s="17"/>
+      <c r="Z132" s="17"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" s="19">
-        <v>64</v>
-      </c>
-      <c r="D133" s="19">
-        <v>98</v>
-      </c>
+      <c r="A133" s="8"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -6748,26 +4647,14 @@
       <c r="V133" s="15"/>
       <c r="W133" s="15"/>
       <c r="X133" s="6"/>
-      <c r="Y133" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z133" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A134" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C134" s="19">
-        <v>100</v>
-      </c>
-      <c r="D134" s="19">
-        <v>352</v>
-      </c>
+      <c r="A134" s="8"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -6788,26 +4675,14 @@
       <c r="V134" s="15"/>
       <c r="W134" s="15"/>
       <c r="X134" s="6"/>
-      <c r="Y134" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z134" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="17"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C135" s="6">
-        <v>300</v>
-      </c>
-      <c r="D135" s="6">
-        <v>300</v>
-      </c>
+      <c r="A135" s="8"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -6828,26 +4703,14 @@
       <c r="V135" s="15"/>
       <c r="W135" s="15"/>
       <c r="X135" s="6"/>
-      <c r="Y135" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z135" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y135" s="17"/>
+      <c r="Z135" s="17"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" s="6">
-        <v>400</v>
-      </c>
-      <c r="D136" s="6">
-        <v>400</v>
-      </c>
+      <c r="A136" s="8"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -6868,26 +4731,14 @@
       <c r="V136" s="15"/>
       <c r="W136" s="15"/>
       <c r="X136" s="6"/>
-      <c r="Y136" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z136" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y136" s="17"/>
+      <c r="Z136" s="17"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" s="6">
-        <v>100</v>
-      </c>
-      <c r="D137" s="6">
-        <v>50</v>
-      </c>
+      <c r="A137" s="8"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -6908,26 +4759,14 @@
       <c r="V137" s="15"/>
       <c r="W137" s="15"/>
       <c r="X137" s="6"/>
-      <c r="Y137" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z137" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y137" s="17"/>
+      <c r="Z137" s="17"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C138" s="19">
-        <v>150</v>
-      </c>
-      <c r="D138" s="19">
-        <v>150</v>
-      </c>
+      <c r="A138" s="8"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -6948,26 +4787,14 @@
       <c r="V138" s="15"/>
       <c r="W138" s="15"/>
       <c r="X138" s="6"/>
-      <c r="Y138" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z138" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y138" s="17"/>
+      <c r="Z138" s="17"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" s="19">
-        <v>90</v>
-      </c>
-      <c r="D139" s="19">
-        <v>130</v>
-      </c>
+      <c r="A139" s="8"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -6988,26 +4815,14 @@
       <c r="V139" s="15"/>
       <c r="W139" s="15"/>
       <c r="X139" s="6"/>
-      <c r="Y139" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z139" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y139" s="17"/>
+      <c r="Z139" s="17"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C140" s="19">
-        <v>64</v>
-      </c>
-      <c r="D140" s="19">
-        <v>98</v>
-      </c>
+      <c r="A140" s="8"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -7028,26 +4843,14 @@
       <c r="V140" s="15"/>
       <c r="W140" s="15"/>
       <c r="X140" s="6"/>
-      <c r="Y140" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z140" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y140" s="17"/>
+      <c r="Z140" s="17"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C141" s="19">
-        <v>100</v>
-      </c>
-      <c r="D141" s="19">
-        <v>352</v>
-      </c>
+      <c r="A141" s="8"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -7068,26 +4871,14 @@
       <c r="V141" s="15"/>
       <c r="W141" s="15"/>
       <c r="X141" s="6"/>
-      <c r="Y141" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z141" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y141" s="17"/>
+      <c r="Z141" s="17"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C142" s="6">
-        <v>300</v>
-      </c>
-      <c r="D142" s="6">
-        <v>300</v>
-      </c>
+      <c r="A142" s="8"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -7108,26 +4899,14 @@
       <c r="V142" s="15"/>
       <c r="W142" s="15"/>
       <c r="X142" s="6"/>
-      <c r="Y142" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z142" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y142" s="17"/>
+      <c r="Z142" s="17"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C143" s="6">
-        <v>400</v>
-      </c>
-      <c r="D143" s="6">
-        <v>400</v>
-      </c>
+      <c r="A143" s="8"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -7148,26 +4927,14 @@
       <c r="V143" s="15"/>
       <c r="W143" s="15"/>
       <c r="X143" s="6"/>
-      <c r="Y143" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z143" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y143" s="17"/>
+      <c r="Z143" s="17"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="6">
-        <v>100</v>
-      </c>
-      <c r="D144" s="6">
-        <v>50</v>
-      </c>
+      <c r="A144" s="8"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -7188,26 +4955,14 @@
       <c r="V144" s="15"/>
       <c r="W144" s="15"/>
       <c r="X144" s="6"/>
-      <c r="Y144" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z144" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y144" s="17"/>
+      <c r="Z144" s="17"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C145" s="19">
-        <v>150</v>
-      </c>
-      <c r="D145" s="19">
-        <v>150</v>
-      </c>
+      <c r="A145" s="8"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -7228,26 +4983,14 @@
       <c r="V145" s="15"/>
       <c r="W145" s="15"/>
       <c r="X145" s="6"/>
-      <c r="Y145" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z145" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y145" s="17"/>
+      <c r="Z145" s="17"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C146" s="19">
-        <v>90</v>
-      </c>
-      <c r="D146" s="19">
-        <v>130</v>
-      </c>
+      <c r="A146" s="8"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -7268,26 +5011,14 @@
       <c r="V146" s="15"/>
       <c r="W146" s="15"/>
       <c r="X146" s="6"/>
-      <c r="Y146" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z146" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y146" s="17"/>
+      <c r="Z146" s="17"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C147" s="19">
-        <v>64</v>
-      </c>
-      <c r="D147" s="19">
-        <v>98</v>
-      </c>
+      <c r="A147" s="8"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -7308,26 +5039,14 @@
       <c r="V147" s="15"/>
       <c r="W147" s="15"/>
       <c r="X147" s="6"/>
-      <c r="Y147" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z147" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y147" s="17"/>
+      <c r="Z147" s="17"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C148" s="19">
-        <v>100</v>
-      </c>
-      <c r="D148" s="19">
-        <v>352</v>
-      </c>
+      <c r="A148" s="8"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -7348,26 +5067,14 @@
       <c r="V148" s="15"/>
       <c r="W148" s="15"/>
       <c r="X148" s="6"/>
-      <c r="Y148" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z148" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y148" s="17"/>
+      <c r="Z148" s="17"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C149" s="6">
-        <v>300</v>
-      </c>
-      <c r="D149" s="6">
-        <v>300</v>
-      </c>
+      <c r="A149" s="8"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -7388,26 +5095,14 @@
       <c r="V149" s="15"/>
       <c r="W149" s="15"/>
       <c r="X149" s="6"/>
-      <c r="Y149" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z149" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y149" s="17"/>
+      <c r="Z149" s="17"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C150" s="6">
-        <v>400</v>
-      </c>
-      <c r="D150" s="6">
-        <v>400</v>
-      </c>
+      <c r="A150" s="8"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -7428,26 +5123,14 @@
       <c r="V150" s="15"/>
       <c r="W150" s="15"/>
       <c r="X150" s="6"/>
-      <c r="Y150" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z150" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y150" s="17"/>
+      <c r="Z150" s="17"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C151" s="6">
-        <v>100</v>
-      </c>
-      <c r="D151" s="6">
-        <v>50</v>
-      </c>
+      <c r="A151" s="8"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -7468,26 +5151,14 @@
       <c r="V151" s="15"/>
       <c r="W151" s="15"/>
       <c r="X151" s="6"/>
-      <c r="Y151" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z151" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y151" s="17"/>
+      <c r="Z151" s="17"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C152" s="19">
-        <v>150</v>
-      </c>
-      <c r="D152" s="19">
-        <v>150</v>
-      </c>
+      <c r="A152" s="8"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -7508,26 +5179,14 @@
       <c r="V152" s="15"/>
       <c r="W152" s="15"/>
       <c r="X152" s="6"/>
-      <c r="Y152" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z152" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y152" s="17"/>
+      <c r="Z152" s="17"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C153" s="19">
-        <v>90</v>
-      </c>
-      <c r="D153" s="19">
-        <v>130</v>
-      </c>
+      <c r="A153" s="8"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -7548,26 +5207,14 @@
       <c r="V153" s="15"/>
       <c r="W153" s="15"/>
       <c r="X153" s="6"/>
-      <c r="Y153" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z153" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y153" s="17"/>
+      <c r="Z153" s="17"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" s="19">
-        <v>64</v>
-      </c>
-      <c r="D154" s="19">
-        <v>98</v>
-      </c>
+      <c r="A154" s="8"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -7588,26 +5235,14 @@
       <c r="V154" s="15"/>
       <c r="W154" s="15"/>
       <c r="X154" s="6"/>
-      <c r="Y154" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z154" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y154" s="17"/>
+      <c r="Z154" s="17"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C155" s="19">
-        <v>100</v>
-      </c>
-      <c r="D155" s="19">
-        <v>352</v>
-      </c>
+      <c r="A155" s="8"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -7628,26 +5263,14 @@
       <c r="V155" s="15"/>
       <c r="W155" s="15"/>
       <c r="X155" s="6"/>
-      <c r="Y155" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z155" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y155" s="17"/>
+      <c r="Z155" s="17"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C156" s="6">
-        <v>300</v>
-      </c>
-      <c r="D156" s="6">
-        <v>300</v>
-      </c>
+      <c r="A156" s="8"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -7668,26 +5291,14 @@
       <c r="V156" s="15"/>
       <c r="W156" s="15"/>
       <c r="X156" s="6"/>
-      <c r="Y156" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z156" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y156" s="17"/>
+      <c r="Z156" s="17"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C157" s="6">
-        <v>400</v>
-      </c>
-      <c r="D157" s="6">
-        <v>400</v>
-      </c>
+      <c r="A157" s="8"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -7708,26 +5319,14 @@
       <c r="V157" s="15"/>
       <c r="W157" s="15"/>
       <c r="X157" s="6"/>
-      <c r="Y157" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z157" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y157" s="17"/>
+      <c r="Z157" s="17"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C158" s="6">
-        <v>100</v>
-      </c>
-      <c r="D158" s="6">
-        <v>50</v>
-      </c>
+      <c r="A158" s="8"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -7748,26 +5347,14 @@
       <c r="V158" s="15"/>
       <c r="W158" s="15"/>
       <c r="X158" s="6"/>
-      <c r="Y158" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z158" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C159" s="19">
-        <v>150</v>
-      </c>
-      <c r="D159" s="19">
-        <v>150</v>
-      </c>
+      <c r="A159" s="8"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -7788,26 +5375,14 @@
       <c r="V159" s="15"/>
       <c r="W159" s="15"/>
       <c r="X159" s="6"/>
-      <c r="Y159" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z159" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y159" s="17"/>
+      <c r="Z159" s="17"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C160" s="19">
-        <v>90</v>
-      </c>
-      <c r="D160" s="19">
-        <v>130</v>
-      </c>
+      <c r="A160" s="8"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -7828,26 +5403,14 @@
       <c r="V160" s="15"/>
       <c r="W160" s="15"/>
       <c r="X160" s="6"/>
-      <c r="Y160" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z160" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y160" s="17"/>
+      <c r="Z160" s="17"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C161" s="19">
-        <v>64</v>
-      </c>
-      <c r="D161" s="19">
-        <v>98</v>
-      </c>
+      <c r="A161" s="8"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -7868,26 +5431,14 @@
       <c r="V161" s="15"/>
       <c r="W161" s="15"/>
       <c r="X161" s="6"/>
-      <c r="Y161" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z161" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y161" s="17"/>
+      <c r="Z161" s="17"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C162" s="19">
-        <v>100</v>
-      </c>
-      <c r="D162" s="19">
-        <v>352</v>
-      </c>
+      <c r="A162" s="8"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
@@ -7908,26 +5459,14 @@
       <c r="V162" s="15"/>
       <c r="W162" s="15"/>
       <c r="X162" s="6"/>
-      <c r="Y162" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z162" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y162" s="17"/>
+      <c r="Z162" s="17"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C163" s="6">
-        <v>300</v>
-      </c>
-      <c r="D163" s="6">
-        <v>300</v>
-      </c>
+      <c r="A163" s="8"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -7948,26 +5487,14 @@
       <c r="V163" s="15"/>
       <c r="W163" s="15"/>
       <c r="X163" s="6"/>
-      <c r="Y163" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z163" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y163" s="17"/>
+      <c r="Z163" s="17"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C164" s="6">
-        <v>400</v>
-      </c>
-      <c r="D164" s="6">
-        <v>400</v>
-      </c>
+      <c r="A164" s="8"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -7988,26 +5515,14 @@
       <c r="V164" s="15"/>
       <c r="W164" s="15"/>
       <c r="X164" s="6"/>
-      <c r="Y164" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z164" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y164" s="17"/>
+      <c r="Z164" s="17"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C165" s="6">
-        <v>100</v>
-      </c>
-      <c r="D165" s="6">
-        <v>50</v>
-      </c>
+      <c r="A165" s="8"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -8028,26 +5543,14 @@
       <c r="V165" s="15"/>
       <c r="W165" s="15"/>
       <c r="X165" s="6"/>
-      <c r="Y165" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z165" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y165" s="17"/>
+      <c r="Z165" s="17"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A166" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C166" s="19">
-        <v>150</v>
-      </c>
-      <c r="D166" s="19">
-        <v>150</v>
-      </c>
+      <c r="A166" s="8"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -8068,26 +5571,14 @@
       <c r="V166" s="15"/>
       <c r="W166" s="15"/>
       <c r="X166" s="6"/>
-      <c r="Y166" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z166" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y166" s="17"/>
+      <c r="Z166" s="17"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C167" s="19">
-        <v>90</v>
-      </c>
-      <c r="D167" s="19">
-        <v>130</v>
-      </c>
+      <c r="A167" s="8"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -8108,26 +5599,14 @@
       <c r="V167" s="15"/>
       <c r="W167" s="15"/>
       <c r="X167" s="6"/>
-      <c r="Y167" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z167" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y167" s="17"/>
+      <c r="Z167" s="17"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C168" s="19">
-        <v>64</v>
-      </c>
-      <c r="D168" s="19">
-        <v>98</v>
-      </c>
+      <c r="A168" s="8"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -8148,26 +5627,14 @@
       <c r="V168" s="15"/>
       <c r="W168" s="15"/>
       <c r="X168" s="6"/>
-      <c r="Y168" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z168" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y168" s="17"/>
+      <c r="Z168" s="17"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A169" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C169" s="19">
-        <v>100</v>
-      </c>
-      <c r="D169" s="19">
-        <v>352</v>
-      </c>
+      <c r="A169" s="8"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -8188,26 +5655,14 @@
       <c r="V169" s="15"/>
       <c r="W169" s="15"/>
       <c r="X169" s="6"/>
-      <c r="Y169" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z169" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y169" s="17"/>
+      <c r="Z169" s="17"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C170" s="6">
-        <v>300</v>
-      </c>
-      <c r="D170" s="6">
-        <v>300</v>
-      </c>
+      <c r="A170" s="8"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -8228,26 +5683,14 @@
       <c r="V170" s="15"/>
       <c r="W170" s="15"/>
       <c r="X170" s="6"/>
-      <c r="Y170" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z170" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y170" s="17"/>
+      <c r="Z170" s="17"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C171" s="6">
-        <v>400</v>
-      </c>
-      <c r="D171" s="6">
-        <v>400</v>
-      </c>
+      <c r="A171" s="8"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -8268,26 +5711,14 @@
       <c r="V171" s="15"/>
       <c r="W171" s="15"/>
       <c r="X171" s="6"/>
-      <c r="Y171" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z171" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y171" s="17"/>
+      <c r="Z171" s="17"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C172" s="6">
-        <v>100</v>
-      </c>
-      <c r="D172" s="6">
-        <v>50</v>
-      </c>
+      <c r="A172" s="8"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
@@ -8308,26 +5739,14 @@
       <c r="V172" s="15"/>
       <c r="W172" s="15"/>
       <c r="X172" s="6"/>
-      <c r="Y172" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z172" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y172" s="17"/>
+      <c r="Z172" s="17"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C173" s="19">
-        <v>150</v>
-      </c>
-      <c r="D173" s="19">
-        <v>150</v>
-      </c>
+      <c r="A173" s="8"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -8348,26 +5767,14 @@
       <c r="V173" s="15"/>
       <c r="W173" s="15"/>
       <c r="X173" s="6"/>
-      <c r="Y173" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z173" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y173" s="17"/>
+      <c r="Z173" s="17"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C174" s="19">
-        <v>90</v>
-      </c>
-      <c r="D174" s="19">
-        <v>130</v>
-      </c>
+      <c r="A174" s="8"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -8388,26 +5795,14 @@
       <c r="V174" s="15"/>
       <c r="W174" s="15"/>
       <c r="X174" s="6"/>
-      <c r="Y174" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z174" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y174" s="17"/>
+      <c r="Z174" s="17"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C175" s="19">
-        <v>64</v>
-      </c>
-      <c r="D175" s="19">
-        <v>98</v>
-      </c>
+      <c r="A175" s="8"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -8428,26 +5823,14 @@
       <c r="V175" s="15"/>
       <c r="W175" s="15"/>
       <c r="X175" s="6"/>
-      <c r="Y175" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z175" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y175" s="17"/>
+      <c r="Z175" s="17"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C176" s="19">
-        <v>100</v>
-      </c>
-      <c r="D176" s="19">
-        <v>352</v>
-      </c>
+      <c r="A176" s="8"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -8468,26 +5851,14 @@
       <c r="V176" s="15"/>
       <c r="W176" s="15"/>
       <c r="X176" s="6"/>
-      <c r="Y176" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z176" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y176" s="17"/>
+      <c r="Z176" s="17"/>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C177" s="6">
-        <v>300</v>
-      </c>
-      <c r="D177" s="6">
-        <v>300</v>
-      </c>
+      <c r="A177" s="8"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -8508,26 +5879,14 @@
       <c r="V177" s="15"/>
       <c r="W177" s="15"/>
       <c r="X177" s="6"/>
-      <c r="Y177" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z177" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y177" s="17"/>
+      <c r="Z177" s="17"/>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C178" s="6">
-        <v>400</v>
-      </c>
-      <c r="D178" s="6">
-        <v>400</v>
-      </c>
+      <c r="A178" s="8"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -8548,26 +5907,14 @@
       <c r="V178" s="15"/>
       <c r="W178" s="15"/>
       <c r="X178" s="6"/>
-      <c r="Y178" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z178" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y178" s="17"/>
+      <c r="Z178" s="17"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A179" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C179" s="6">
-        <v>100</v>
-      </c>
-      <c r="D179" s="6">
-        <v>50</v>
-      </c>
+      <c r="A179" s="8"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -8588,26 +5935,14 @@
       <c r="V179" s="15"/>
       <c r="W179" s="15"/>
       <c r="X179" s="6"/>
-      <c r="Y179" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z179" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y179" s="17"/>
+      <c r="Z179" s="17"/>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C180" s="19">
-        <v>150</v>
-      </c>
-      <c r="D180" s="19">
-        <v>150</v>
-      </c>
+      <c r="A180" s="8"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -8628,26 +5963,14 @@
       <c r="V180" s="15"/>
       <c r="W180" s="15"/>
       <c r="X180" s="6"/>
-      <c r="Y180" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z180" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y180" s="17"/>
+      <c r="Z180" s="17"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A181" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C181" s="19">
-        <v>90</v>
-      </c>
-      <c r="D181" s="19">
-        <v>130</v>
-      </c>
+      <c r="A181" s="8"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -8668,26 +5991,14 @@
       <c r="V181" s="15"/>
       <c r="W181" s="15"/>
       <c r="X181" s="6"/>
-      <c r="Y181" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z181" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y181" s="17"/>
+      <c r="Z181" s="17"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C182" s="19">
-        <v>64</v>
-      </c>
-      <c r="D182" s="19">
-        <v>98</v>
-      </c>
+      <c r="A182" s="8"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -8708,26 +6019,14 @@
       <c r="V182" s="15"/>
       <c r="W182" s="15"/>
       <c r="X182" s="6"/>
-      <c r="Y182" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z182" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y182" s="17"/>
+      <c r="Z182" s="17"/>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C183" s="19">
-        <v>100</v>
-      </c>
-      <c r="D183" s="19">
-        <v>352</v>
-      </c>
+      <c r="A183" s="8"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
@@ -8748,26 +6047,14 @@
       <c r="V183" s="15"/>
       <c r="W183" s="15"/>
       <c r="X183" s="6"/>
-      <c r="Y183" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z183" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y183" s="17"/>
+      <c r="Z183" s="17"/>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B184" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C184" s="6">
-        <v>300</v>
-      </c>
-      <c r="D184" s="6">
-        <v>300</v>
-      </c>
+      <c r="A184" s="8"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -8788,26 +6075,14 @@
       <c r="V184" s="15"/>
       <c r="W184" s="15"/>
       <c r="X184" s="6"/>
-      <c r="Y184" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z184" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y184" s="17"/>
+      <c r="Z184" s="17"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A185" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C185" s="6">
-        <v>400</v>
-      </c>
-      <c r="D185" s="6">
-        <v>400</v>
-      </c>
+      <c r="A185" s="8"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -8828,26 +6103,14 @@
       <c r="V185" s="15"/>
       <c r="W185" s="15"/>
       <c r="X185" s="6"/>
-      <c r="Y185" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z185" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y185" s="17"/>
+      <c r="Z185" s="17"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C186" s="6">
-        <v>100</v>
-      </c>
-      <c r="D186" s="6">
-        <v>50</v>
-      </c>
+      <c r="A186" s="8"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
@@ -8868,26 +6131,14 @@
       <c r="V186" s="15"/>
       <c r="W186" s="15"/>
       <c r="X186" s="6"/>
-      <c r="Y186" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z186" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y186" s="17"/>
+      <c r="Z186" s="17"/>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C187" s="19">
-        <v>150</v>
-      </c>
-      <c r="D187" s="19">
-        <v>150</v>
-      </c>
+      <c r="A187" s="8"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
@@ -8908,26 +6159,14 @@
       <c r="V187" s="15"/>
       <c r="W187" s="15"/>
       <c r="X187" s="6"/>
-      <c r="Y187" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z187" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y187" s="17"/>
+      <c r="Z187" s="17"/>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C188" s="19">
-        <v>90</v>
-      </c>
-      <c r="D188" s="19">
-        <v>130</v>
-      </c>
+      <c r="A188" s="8"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -8948,26 +6187,14 @@
       <c r="V188" s="15"/>
       <c r="W188" s="15"/>
       <c r="X188" s="6"/>
-      <c r="Y188" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z188" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y188" s="17"/>
+      <c r="Z188" s="17"/>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A189" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C189" s="19">
-        <v>64</v>
-      </c>
-      <c r="D189" s="19">
-        <v>98</v>
-      </c>
+      <c r="A189" s="8"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -8988,26 +6215,14 @@
       <c r="V189" s="15"/>
       <c r="W189" s="15"/>
       <c r="X189" s="6"/>
-      <c r="Y189" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z189" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y189" s="17"/>
+      <c r="Z189" s="17"/>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C190" s="19">
-        <v>100</v>
-      </c>
-      <c r="D190" s="19">
-        <v>352</v>
-      </c>
+      <c r="A190" s="8"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -9028,26 +6243,14 @@
       <c r="V190" s="15"/>
       <c r="W190" s="15"/>
       <c r="X190" s="6"/>
-      <c r="Y190" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z190" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y190" s="17"/>
+      <c r="Z190" s="17"/>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D191" s="6">
-        <v>300</v>
-      </c>
+      <c r="A191" s="8"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -9068,26 +6271,14 @@
       <c r="V191" s="15"/>
       <c r="W191" s="15"/>
       <c r="X191" s="6"/>
-      <c r="Y191" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z191" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y191" s="17"/>
+      <c r="Z191" s="17"/>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C192" s="6">
-        <v>400</v>
-      </c>
-      <c r="D192" s="6">
-        <v>400</v>
-      </c>
+      <c r="A192" s="8"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -9108,26 +6299,14 @@
       <c r="V192" s="15"/>
       <c r="W192" s="15"/>
       <c r="X192" s="6"/>
-      <c r="Y192" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z192" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y192" s="17"/>
+      <c r="Z192" s="17"/>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C193" s="6">
-        <v>100</v>
-      </c>
-      <c r="D193" s="6">
-        <v>50</v>
-      </c>
+      <c r="A193" s="8"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -9148,26 +6327,14 @@
       <c r="V193" s="15"/>
       <c r="W193" s="15"/>
       <c r="X193" s="6"/>
-      <c r="Y193" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z193" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y193" s="17"/>
+      <c r="Z193" s="17"/>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C194" s="19">
-        <v>150</v>
-      </c>
-      <c r="D194" s="19">
-        <v>150</v>
-      </c>
+      <c r="A194" s="8"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -9188,26 +6355,14 @@
       <c r="V194" s="15"/>
       <c r="W194" s="15"/>
       <c r="X194" s="6"/>
-      <c r="Y194" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z194" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y194" s="17"/>
+      <c r="Z194" s="17"/>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B195" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C195" s="19">
-        <v>90</v>
-      </c>
-      <c r="D195" s="19">
-        <v>130</v>
-      </c>
+      <c r="A195" s="8"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -9228,26 +6383,14 @@
       <c r="V195" s="15"/>
       <c r="W195" s="15"/>
       <c r="X195" s="6"/>
-      <c r="Y195" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z195" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y195" s="17"/>
+      <c r="Z195" s="17"/>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B196" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C196" s="19">
-        <v>64</v>
-      </c>
-      <c r="D196" s="19">
-        <v>98</v>
-      </c>
+      <c r="A196" s="8"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -9268,26 +6411,14 @@
       <c r="V196" s="15"/>
       <c r="W196" s="15"/>
       <c r="X196" s="6"/>
-      <c r="Y196" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z196" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y196" s="17"/>
+      <c r="Z196" s="17"/>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C197" s="19">
-        <v>100</v>
-      </c>
-      <c r="D197" s="19">
-        <v>352</v>
-      </c>
+      <c r="A197" s="8"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -9308,26 +6439,14 @@
       <c r="V197" s="15"/>
       <c r="W197" s="15"/>
       <c r="X197" s="6"/>
-      <c r="Y197" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z197" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y197" s="17"/>
+      <c r="Z197" s="17"/>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A198" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C198" s="6">
-        <v>300</v>
-      </c>
-      <c r="D198" s="6">
-        <v>300</v>
-      </c>
+      <c r="A198" s="8"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -9348,26 +6467,14 @@
       <c r="V198" s="15"/>
       <c r="W198" s="15"/>
       <c r="X198" s="6"/>
-      <c r="Y198" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z198" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y198" s="17"/>
+      <c r="Z198" s="17"/>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A199" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C199" s="6">
-        <v>400</v>
-      </c>
-      <c r="D199" s="6">
-        <v>400</v>
-      </c>
+      <c r="A199" s="8"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -9388,26 +6495,14 @@
       <c r="V199" s="15"/>
       <c r="W199" s="15"/>
       <c r="X199" s="6"/>
-      <c r="Y199" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z199" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y199" s="17"/>
+      <c r="Z199" s="17"/>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A200" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C200" s="6">
-        <v>100</v>
-      </c>
-      <c r="D200" s="6">
-        <v>50</v>
-      </c>
+      <c r="A200" s="8"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -9428,26 +6523,14 @@
       <c r="V200" s="15"/>
       <c r="W200" s="15"/>
       <c r="X200" s="6"/>
-      <c r="Y200" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z200" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y200" s="17"/>
+      <c r="Z200" s="17"/>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C201" s="19">
-        <v>150</v>
-      </c>
-      <c r="D201" s="19">
-        <v>150</v>
-      </c>
+      <c r="A201" s="8"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -9468,26 +6551,14 @@
       <c r="V201" s="15"/>
       <c r="W201" s="15"/>
       <c r="X201" s="6"/>
-      <c r="Y201" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z201" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y201" s="17"/>
+      <c r="Z201" s="17"/>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C202" s="19">
-        <v>90</v>
-      </c>
-      <c r="D202" s="19">
-        <v>130</v>
-      </c>
+      <c r="A202" s="8"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -9508,26 +6579,14 @@
       <c r="V202" s="15"/>
       <c r="W202" s="15"/>
       <c r="X202" s="6"/>
-      <c r="Y202" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z202" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y202" s="17"/>
+      <c r="Z202" s="17"/>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A203" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C203" s="19">
-        <v>64</v>
-      </c>
-      <c r="D203" s="19">
-        <v>98</v>
-      </c>
+      <c r="A203" s="8"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -9548,26 +6607,14 @@
       <c r="V203" s="15"/>
       <c r="W203" s="15"/>
       <c r="X203" s="6"/>
-      <c r="Y203" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z203" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y203" s="17"/>
+      <c r="Z203" s="17"/>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C204" s="19">
-        <v>100</v>
-      </c>
-      <c r="D204" s="19">
-        <v>352</v>
-      </c>
+      <c r="A204" s="8"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -9588,26 +6635,14 @@
       <c r="V204" s="15"/>
       <c r="W204" s="15"/>
       <c r="X204" s="6"/>
-      <c r="Y204" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z204" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y204" s="17"/>
+      <c r="Z204" s="17"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A205" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C205" s="6">
-        <v>300</v>
-      </c>
-      <c r="D205" s="6">
-        <v>300</v>
-      </c>
+      <c r="A205" s="8"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -9628,26 +6663,14 @@
       <c r="V205" s="15"/>
       <c r="W205" s="15"/>
       <c r="X205" s="6"/>
-      <c r="Y205" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z205" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y205" s="17"/>
+      <c r="Z205" s="17"/>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A206" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C206" s="6">
-        <v>400</v>
-      </c>
-      <c r="D206" s="6">
-        <v>400</v>
-      </c>
+      <c r="A206" s="8"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -9668,26 +6691,14 @@
       <c r="V206" s="15"/>
       <c r="W206" s="15"/>
       <c r="X206" s="6"/>
-      <c r="Y206" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z206" s="17">
-        <v>3</v>
-      </c>
+      <c r="Y206" s="17"/>
+      <c r="Z206" s="17"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C207" s="6">
-        <v>100</v>
-      </c>
-      <c r="D207" s="6">
-        <v>50</v>
-      </c>
+      <c r="A207" s="8"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -9708,26 +6719,14 @@
       <c r="V207" s="15"/>
       <c r="W207" s="15"/>
       <c r="X207" s="6"/>
-      <c r="Y207" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z207" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y207" s="17"/>
+      <c r="Z207" s="17"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A208" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C208" s="19">
-        <v>150</v>
-      </c>
-      <c r="D208" s="19">
-        <v>150</v>
-      </c>
+      <c r="A208" s="8"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -9748,26 +6747,14 @@
       <c r="V208" s="15"/>
       <c r="W208" s="15"/>
       <c r="X208" s="6"/>
-      <c r="Y208" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z208" s="17">
-        <v>4.75</v>
-      </c>
+      <c r="Y208" s="17"/>
+      <c r="Z208" s="17"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C209" s="19">
-        <v>90</v>
-      </c>
-      <c r="D209" s="19">
-        <v>130</v>
-      </c>
+      <c r="A209" s="8"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -9788,26 +6775,14 @@
       <c r="V209" s="15"/>
       <c r="W209" s="15"/>
       <c r="X209" s="6"/>
-      <c r="Y209" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z209" s="17">
-        <v>6.35</v>
-      </c>
+      <c r="Y209" s="17"/>
+      <c r="Z209" s="17"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C210" s="19">
-        <v>64</v>
-      </c>
-      <c r="D210" s="19">
-        <v>98</v>
-      </c>
+      <c r="A210" s="8"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -9828,26 +6803,14 @@
       <c r="V210" s="15"/>
       <c r="W210" s="15"/>
       <c r="X210" s="6"/>
-      <c r="Y210" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z210" s="17">
-        <v>7.94</v>
-      </c>
+      <c r="Y210" s="17"/>
+      <c r="Z210" s="17"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C211" s="19">
-        <v>100</v>
-      </c>
-      <c r="D211" s="19">
-        <v>352</v>
-      </c>
+      <c r="A211" s="8"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -9868,26 +6831,14 @@
       <c r="V211" s="15"/>
       <c r="W211" s="15"/>
       <c r="X211" s="6"/>
-      <c r="Y211" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z211" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y211" s="17"/>
+      <c r="Z211" s="17"/>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A212" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C212" s="19">
-        <v>64</v>
-      </c>
-      <c r="D212" s="19">
-        <v>98</v>
-      </c>
+      <c r="A212" s="8"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -9908,26 +6859,14 @@
       <c r="V212" s="15"/>
       <c r="W212" s="15"/>
       <c r="X212" s="6"/>
-      <c r="Y212" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z212" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y212" s="17"/>
+      <c r="Z212" s="17"/>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C213" s="19">
-        <v>100</v>
-      </c>
-      <c r="D213" s="19">
-        <v>352</v>
-      </c>
+      <c r="A213" s="8"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -9948,26 +6887,14 @@
       <c r="V213" s="15"/>
       <c r="W213" s="15"/>
       <c r="X213" s="6"/>
-      <c r="Y213" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z213" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y213" s="17"/>
+      <c r="Z213" s="17"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C214" s="19">
-        <v>64</v>
-      </c>
-      <c r="D214" s="19">
-        <v>98</v>
-      </c>
+      <c r="A214" s="8"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -9988,12 +6915,8 @@
       <c r="V214" s="15"/>
       <c r="W214" s="15"/>
       <c r="X214" s="6"/>
-      <c r="Y214" s="17">
-        <v>100</v>
-      </c>
-      <c r="Z214" s="17">
-        <v>9.5299999999999994</v>
-      </c>
+      <c r="Y214" s="17"/>
+      <c r="Z214" s="17"/>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
@@ -10177,12 +7100,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B215:B274">
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="right_triangle">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="right_triangle">
       <formula>NOT(ISERROR(SEARCH("right_triangle",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B214">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="right_triangle">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="right_triangle">
       <formula>NOT(ISERROR(SEARCH("right_triangle",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
